--- a/biology/Zoologie/Conus_dangdami/Conus_dangdami.xlsx
+++ b/biology/Zoologie/Conus_dangdami/Conus_dangdami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus dangdami est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’argument date (valeur mars 2018) n’existe pas dans le modèle appelé
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine d'escargot conique est endémique au Viêt Nam.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus dangdami a été décrite pour la première fois en 2017 par le malacologiste vietnamien Nguyen Ngoc Thach (d)[1],[2],[3].
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus dangdami dans les principales bases sont les suivants :
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus dangdami a été décrite pour la première fois en 2017 par le malacologiste vietnamien Nguyen Ngoc Thach (d).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_dangdami</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_dangdami</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus dangdami dans les principales bases sont les suivants :
 CoL : XX9K - GBIF : 9488354 - WoRMS : 1026647
 </t>
         </is>
